--- a/Book_final.xlsx
+++ b/Book_final.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="121">
   <si>
     <t>Application  name</t>
   </si>
@@ -153,9 +153,6 @@
     <t>24292(4%)</t>
   </si>
   <si>
-    <t>Number of WG</t>
-  </si>
-  <si>
     <t>4459(3.4 %)</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>54(5.24 %)</t>
   </si>
   <si>
-    <t>Number of Calls</t>
-  </si>
-  <si>
     <t>16953(5.58%)</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>21(2.04)</t>
+  </si>
+  <si>
+    <t>Number of Calls-2^20</t>
+  </si>
+  <si>
+    <t>Number of Calls-2^19</t>
   </si>
 </sst>
 </file>
@@ -724,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,54 +737,61 @@
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="19.25" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="23" width="11.625" customWidth="1"/>
-    <col min="24" max="24" width="10.625" customWidth="1"/>
-    <col min="28" max="28" width="15.5" customWidth="1"/>
-    <col min="29" max="29" width="13.75" customWidth="1"/>
+    <col min="10" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="10.625" customWidth="1"/>
+    <col min="29" max="29" width="15.5" customWidth="1"/>
+    <col min="30" max="30" width="17.25" customWidth="1"/>
+    <col min="31" max="31" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
       <c r="AD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -809,46 +816,46 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>31</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>5</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>6</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>39</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -859,13 +866,13 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -873,38 +880,50 @@
       <c r="J6">
         <v>129</v>
       </c>
+      <c r="L6">
+        <v>4096</v>
+      </c>
       <c r="M6">
+        <v>8192</v>
+      </c>
+      <c r="N6">
         <v>0.52</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>32</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>256</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
         <v>66</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>67</v>
       </c>
-      <c r="X6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>9</v>
       </c>
       <c r="AD6">
+        <v>1024</v>
+      </c>
+      <c r="AE6">
+        <v>1024</v>
+      </c>
+      <c r="AF6">
         <v>0.879</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -912,16 +931,16 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -929,38 +948,50 @@
       <c r="J7">
         <v>129</v>
       </c>
+      <c r="L7">
+        <v>344064</v>
+      </c>
       <c r="M7">
+        <v>745472</v>
+      </c>
+      <c r="N7">
         <v>0.39</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>33</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>256</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
         <v>74</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>75</v>
       </c>
-      <c r="X7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>9</v>
       </c>
       <c r="AD7">
+        <v>92160</v>
+      </c>
+      <c r="AE7">
+        <v>102400</v>
+      </c>
+      <c r="AF7">
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -968,16 +999,16 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -985,41 +1016,53 @@
       <c r="J8">
         <v>129</v>
       </c>
+      <c r="L8">
+        <v>319488</v>
+      </c>
       <c r="M8">
+        <v>745472</v>
+      </c>
+      <c r="N8">
         <v>0.26</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>34</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>256</v>
       </c>
-      <c r="V8" t="s">
-        <v>70</v>
-      </c>
       <c r="W8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="X8" t="s">
         <v>71</v>
       </c>
       <c r="Y8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>70</v>
       </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>9</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8">
+        <v>56320</v>
+      </c>
+      <c r="AE8">
+        <v>56320</v>
+      </c>
+      <c r="AF8" s="3">
         <v>0.53</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1027,13 +1070,16 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1058,16 +1104,16 @@
       <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1075,16 +1121,16 @@
         <v>256</v>
       </c>
       <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1092,11 +1138,17 @@
       <c r="J13">
         <v>127</v>
       </c>
+      <c r="L13">
+        <v>1024</v>
+      </c>
       <c r="M13">
+        <v>1024</v>
+      </c>
+      <c r="N13">
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1104,16 +1156,16 @@
         <v>256</v>
       </c>
       <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1121,11 +1173,17 @@
       <c r="J14">
         <v>127</v>
       </c>
+      <c r="L14">
+        <v>92160</v>
+      </c>
       <c r="M14">
+        <v>102400</v>
+      </c>
+      <c r="N14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1133,16 +1191,16 @@
         <v>256</v>
       </c>
       <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1150,40 +1208,52 @@
       <c r="J15">
         <v>127</v>
       </c>
+      <c r="L15">
+        <v>56320</v>
+      </c>
       <c r="M15">
+        <v>56320</v>
+      </c>
+      <c r="N15">
         <v>0.53</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="AA22" t="s">
+      <c r="S22" s="1"/>
+      <c r="AB22" t="s">
         <v>36</v>
       </c>
-      <c r="AC22" t="s">
-        <v>53</v>
-      </c>
       <c r="AD22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1208,46 +1278,46 @@
       <c r="J23" t="s">
         <v>12</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>13</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>35</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>26</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>6</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>39</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>8</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>9</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>37</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1255,16 +1325,16 @@
         <v>512</v>
       </c>
       <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
         <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1272,38 +1342,50 @@
       <c r="J25">
         <v>125</v>
       </c>
+      <c r="L25">
+        <v>512</v>
+      </c>
       <c r="M25">
+        <v>2048</v>
+      </c>
+      <c r="N25">
         <v>2.67</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>3</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>512</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" t="s">
         <v>78</v>
       </c>
-      <c r="W25" t="s">
-        <v>79</v>
-      </c>
-      <c r="X25" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+      <c r="Z25" t="s">
+        <v>82</v>
       </c>
       <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>8.8000000000000007</v>
       </c>
       <c r="AD25">
+        <v>512</v>
+      </c>
+      <c r="AE25">
+        <v>2048</v>
+      </c>
+      <c r="AF25">
         <v>1.97</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1311,16 +1393,16 @@
         <v>512</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1328,38 +1410,50 @@
       <c r="J26">
         <v>125</v>
       </c>
+      <c r="L26">
+        <v>46080</v>
+      </c>
       <c r="M26">
+        <v>202752</v>
+      </c>
+      <c r="N26">
         <v>1.42</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>14</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>512</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s">
         <v>81</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Z26" t="s">
         <v>82</v>
       </c>
-      <c r="X26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <v>8.8000000000000007</v>
       </c>
       <c r="AD26">
+        <v>46080</v>
+      </c>
+      <c r="AE26">
+        <v>202752</v>
+      </c>
+      <c r="AF26">
         <v>0.82</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1367,16 +1461,16 @@
         <v>512</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1384,54 +1478,69 @@
       <c r="J27">
         <v>125</v>
       </c>
+      <c r="L27">
+        <v>23040</v>
+      </c>
       <c r="M27">
+        <v>135168</v>
+      </c>
+      <c r="N27">
         <v>1.05</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>4</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>512</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
+        <v>68</v>
+      </c>
+      <c r="X27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z27" t="s">
         <v>70</v>
       </c>
-      <c r="W27" t="s">
-        <v>73</v>
-      </c>
-      <c r="X27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
       <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>8.8000000000000007</v>
       </c>
       <c r="AD27">
+        <v>23040</v>
+      </c>
+      <c r="AE27">
+        <v>135168</v>
+      </c>
+      <c r="AF27">
         <v>1.06</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1456,16 +1565,16 @@
       <c r="J32" t="s">
         <v>12</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1473,16 +1582,16 @@
         <v>256</v>
       </c>
       <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" t="s">
         <v>99</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>100</v>
-      </c>
-      <c r="G34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" t="s">
-        <v>102</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1490,11 +1599,17 @@
       <c r="J34">
         <v>30</v>
       </c>
+      <c r="L34">
+        <v>1024</v>
+      </c>
       <c r="M34">
+        <v>1024</v>
+      </c>
+      <c r="N34">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1502,16 +1617,16 @@
         <v>256</v>
       </c>
       <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
         <v>103</v>
       </c>
-      <c r="F35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" t="s">
-        <v>105</v>
-      </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1519,11 +1634,17 @@
       <c r="J35">
         <v>30</v>
       </c>
+      <c r="L35">
+        <v>92160</v>
+      </c>
       <c r="M35">
+        <v>102400</v>
+      </c>
+      <c r="N35">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1531,16 +1652,16 @@
         <v>256</v>
       </c>
       <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
         <v>106</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>107</v>
-      </c>
-      <c r="G36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" t="s">
-        <v>109</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1548,27 +1669,36 @@
       <c r="J36">
         <v>30</v>
       </c>
+      <c r="L36">
+        <v>56320</v>
+      </c>
       <c r="M36">
+        <v>56320</v>
+      </c>
+      <c r="N36">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1593,11 +1723,11 @@
       <c r="J40" t="s">
         <v>12</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1605,16 +1735,16 @@
         <v>512</v>
       </c>
       <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
         <v>110</v>
       </c>
-      <c r="F41" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" t="s">
-        <v>112</v>
-      </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1622,14 +1752,20 @@
       <c r="J41">
         <v>24</v>
       </c>
+      <c r="L41">
+        <v>512</v>
+      </c>
       <c r="M41">
+        <v>2048</v>
+      </c>
+      <c r="N41">
         <v>1.43</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1637,16 +1773,16 @@
         <v>512</v>
       </c>
       <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
         <v>103</v>
       </c>
-      <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" t="s">
-        <v>105</v>
-      </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1654,11 +1790,17 @@
       <c r="J42">
         <v>24</v>
       </c>
+      <c r="L42">
+        <v>46080</v>
+      </c>
       <c r="M42">
+        <v>202752</v>
+      </c>
+      <c r="N42">
         <v>0.34</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1666,16 +1808,16 @@
         <v>512</v>
       </c>
       <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
         <v>106</v>
       </c>
-      <c r="F43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" t="s">
-        <v>108</v>
-      </c>
       <c r="H43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1683,25 +1825,34 @@
       <c r="J43">
         <v>24</v>
       </c>
+      <c r="L43">
+        <v>23040</v>
+      </c>
       <c r="M43">
+        <v>135168</v>
+      </c>
+      <c r="N43">
         <v>0.13</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M46" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1726,11 +1877,11 @@
       <c r="J47" t="s">
         <v>12</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1738,16 +1889,16 @@
         <v>128</v>
       </c>
       <c r="E48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" t="s">
         <v>113</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>114</v>
-      </c>
-      <c r="G48" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" t="s">
-        <v>116</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -1755,11 +1906,17 @@
       <c r="J48">
         <v>34</v>
       </c>
+      <c r="L48">
+        <v>2048</v>
+      </c>
       <c r="M48">
+        <v>4096</v>
+      </c>
+      <c r="N48">
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1767,16 +1924,16 @@
         <v>128</v>
       </c>
       <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" t="s">
         <v>117</v>
       </c>
-      <c r="F49" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" t="s">
-        <v>119</v>
-      </c>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -1784,11 +1941,17 @@
       <c r="J49">
         <v>34</v>
       </c>
+      <c r="L49">
+        <v>180224</v>
+      </c>
       <c r="M49">
+        <v>393216</v>
+      </c>
+      <c r="N49">
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1796,16 +1959,16 @@
         <v>128</v>
       </c>
       <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
         <v>106</v>
       </c>
-      <c r="F50" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" t="s">
-        <v>108</v>
-      </c>
       <c r="H50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -1813,7 +1976,13 @@
       <c r="J50">
         <v>34</v>
       </c>
+      <c r="L50">
+        <v>135168</v>
+      </c>
       <c r="M50">
+        <v>319488</v>
+      </c>
+      <c r="N50">
         <v>0.03</v>
       </c>
     </row>
